--- a/biology/Zoologie/Campagnol_boréal/Campagnol_boréal.xlsx
+++ b/biology/Zoologie/Campagnol_boréal/Campagnol_boréal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Campagnol_bor%C3%A9al</t>
+          <t>Campagnol_boréal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myodes rutilus
 Le campagnol boréal (Myodes rutilus) est une espèce de rongeurs de la famille des Cricetidae. Il se trouve en Alaska, dans le nord du Canada, en Scandinavie et dans le nord de la Russie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Campagnol_bor%C3%A9al</t>
+          <t>Campagnol_boréal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Campagnol_bor%C3%A9al</t>
+          <t>Campagnol_boréal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
